--- a/Data/Final Scope Results Drift Correction/A150_scope_2021_05_24_DC.xlsx
+++ b/Data/Final Scope Results Drift Correction/A150_scope_2021_05_24_DC.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidiyambodj/Desktop/Final Scope Results Drift Correction /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SCOPE I\Final Scope Results Drift Correction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B104650-449D-524A-BD52-554809D41AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA67CC7-AE0E-4814-8696-71983A9FD197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="11760" windowHeight="12870" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A150_scope_2021_05_24" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="184">
   <si>
     <t>File Name</t>
   </si>
@@ -422,9 +433,6 @@
   </si>
   <si>
     <t>E01</t>
-  </si>
-  <si>
-    <t>74.4</t>
   </si>
   <si>
     <t>piaB</t>
@@ -632,12 +640,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -655,7 +669,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -686,6 +700,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,16 +1030,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" customWidth="1"/>
     <col min="5" max="6" width="15" style="7" customWidth="1"/>
     <col min="7" max="7" width="15" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
@@ -1164,25 +1190,25 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="13">
         <v>37.037460447796697</v>
       </c>
     </row>
@@ -1941,7 +1967,7 @@
         <v>36</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>38</v>
@@ -2175,16 +2201,16 @@
       <c r="D69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>134</v>
+      <c r="E69" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>34</v>
@@ -2199,12 +2225,12 @@
         <v>40</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>34</v>
@@ -2219,12 +2245,12 @@
         <v>42</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>34</v>
@@ -2239,7 +2265,7 @@
         <v>44</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G72" s="8">
         <v>38.217401141292598</v>
@@ -2247,7 +2273,7 @@
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>34</v>
@@ -2262,12 +2288,12 @@
         <v>46</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>34</v>
@@ -2282,7 +2308,7 @@
         <v>48</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G74" s="8">
         <v>32.454004445647001</v>
@@ -2290,7 +2316,7 @@
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>34</v>
@@ -2305,12 +2331,12 @@
         <v>50</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>34</v>
@@ -2325,12 +2351,12 @@
         <v>52</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>34</v>
@@ -2345,12 +2371,12 @@
         <v>54</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>34</v>
@@ -2365,12 +2391,12 @@
         <v>56</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>34</v>
@@ -2385,12 +2411,12 @@
         <v>58</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>34</v>
@@ -2405,12 +2431,12 @@
         <v>60</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>34</v>
@@ -2425,12 +2451,12 @@
         <v>62</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>34</v>
@@ -2445,12 +2471,12 @@
         <v>64</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>34</v>
@@ -2465,12 +2491,12 @@
         <v>66</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>34</v>
@@ -2485,12 +2511,12 @@
         <v>68</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>34</v>
@@ -2505,12 +2531,12 @@
         <v>70</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>34</v>
@@ -2525,12 +2551,12 @@
         <v>72</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>34</v>
@@ -2545,12 +2571,12 @@
         <v>74</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>34</v>
@@ -2565,12 +2591,12 @@
         <v>76</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>34</v>
@@ -2585,12 +2611,12 @@
         <v>78</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>34</v>
@@ -2605,12 +2631,12 @@
         <v>80</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>34</v>
@@ -2625,12 +2651,12 @@
         <v>82</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>34</v>
@@ -2645,12 +2671,12 @@
         <v>84</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>34</v>
@@ -2665,12 +2691,12 @@
         <v>86</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>34</v>
@@ -2685,12 +2711,12 @@
         <v>88</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>34</v>
@@ -2705,12 +2731,12 @@
         <v>90</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>34</v>
@@ -2725,12 +2751,12 @@
         <v>92</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>34</v>
@@ -2745,7 +2771,7 @@
         <v>94</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G97" s="8">
         <v>33.280035547205301</v>
@@ -2753,7 +2779,7 @@
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>34</v>
@@ -2768,12 +2794,12 @@
         <v>96</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>34</v>
@@ -2788,12 +2814,12 @@
         <v>98</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>34</v>
@@ -2808,12 +2834,12 @@
         <v>100</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>34</v>
@@ -2828,12 +2854,12 @@
         <v>102</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>34</v>
@@ -2848,12 +2874,12 @@
         <v>104</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>34</v>
@@ -2868,32 +2894,32 @@
         <v>106</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="F104" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>34</v>
@@ -2908,12 +2934,12 @@
         <v>110</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>34</v>
@@ -2925,15 +2951,15 @@
         <v>36</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>34</v>
@@ -2948,12 +2974,12 @@
         <v>113</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>34</v>
@@ -2968,12 +2994,12 @@
         <v>115</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>34</v>
@@ -2988,12 +3014,12 @@
         <v>117</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>34</v>
@@ -3008,12 +3034,12 @@
         <v>119</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>34</v>
@@ -3028,12 +3054,12 @@
         <v>35</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>34</v>
@@ -3048,7 +3074,7 @@
         <v>124</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G112" s="8">
         <v>22.0428135513847</v>
@@ -3056,7 +3082,7 @@
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>34</v>
@@ -3071,7 +3097,7 @@
         <v>126</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G113" s="8">
         <v>25.813423148259599</v>
@@ -3079,7 +3105,7 @@
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>34</v>
@@ -3094,7 +3120,7 @@
         <v>128</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G114" s="8">
         <v>29.160400687859202</v>
@@ -3102,7 +3128,7 @@
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>34</v>
@@ -3117,7 +3143,7 @@
         <v>130</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G115" s="8">
         <v>34.375753936707902</v>
@@ -3125,7 +3151,7 @@
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>34</v>
@@ -3140,7 +3166,7 @@
         <v>132</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
